--- a/PCB/BOM_Rev2.xlsx
+++ b/PCB/BOM_Rev2.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/dcb7e34ab32489e6/Arduino_PCB/ESP32_2.4inch_Stock_Ticker/Project Outputs for Rev2/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1" documentId="8_{35595401-BC2C-4195-AA82-522D24120FB3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{D5D82DA8-A84B-42DB-AADB-C9A21C4CC850}"/>
+  <xr:revisionPtr revIDLastSave="16" documentId="8_{35595401-BC2C-4195-AA82-522D24120FB3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{C4171A47-4827-4B69-97AB-BCB1EDD18296}"/>
   <bookViews>
-    <workbookView xWindow="59745" yWindow="360" windowWidth="22335" windowHeight="14400" xr2:uid="{67B11A14-B3C7-4BB6-ABF1-69FB8297A07D}"/>
+    <workbookView xWindow="3675" yWindow="683" windowWidth="22335" windowHeight="14399" xr2:uid="{67B11A14-B3C7-4BB6-ABF1-69FB8297A07D}"/>
   </bookViews>
   <sheets>
     <sheet name="BOM_Rev2" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="159" uniqueCount="117">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="155" uniqueCount="115">
   <si>
     <t>Designator</t>
   </si>
@@ -132,12 +132,6 @@
     <t>QWiiC</t>
   </si>
   <si>
-    <t>SM04B-SRSS-TB(LF)(SN)</t>
-  </si>
-  <si>
-    <t>JST</t>
-  </si>
-  <si>
     <t>Digi-Key</t>
   </si>
   <si>
@@ -201,12 +195,6 @@
     <t>22K</t>
   </si>
   <si>
-    <t>C100310</t>
-  </si>
-  <si>
-    <t>LIZ Elec</t>
-  </si>
-  <si>
     <t>R4</t>
   </si>
   <si>
@@ -379,6 +367,13 @@
   </si>
   <si>
     <t>NEOPIXEL</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 
+PRT-16766</t>
+  </si>
+  <si>
+    <t>Sparkfun</t>
   </si>
 </sst>
 </file>
@@ -462,6 +457,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -763,8 +762,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{370C51D7-F632-4A71-B7E1-EAFB65012AB5}">
   <dimension ref="A1:G28"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K12" sqref="K12"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="D21" sqref="D21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -772,7 +771,7 @@
     <col min="1" max="1" width="15.86328125" customWidth="1"/>
     <col min="2" max="2" width="10.265625" customWidth="1"/>
     <col min="3" max="3" width="37.59765625" customWidth="1"/>
-    <col min="4" max="4" width="15.53125" customWidth="1"/>
+    <col min="4" max="4" width="18.86328125" customWidth="1"/>
     <col min="5" max="5" width="20.86328125" customWidth="1"/>
     <col min="6" max="6" width="14.33203125" customWidth="1"/>
     <col min="7" max="7" width="10.59765625" customWidth="1"/>
@@ -809,16 +808,14 @@
         <v>4</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>8</v>
       </c>
       <c r="E2" s="2"/>
       <c r="F2" s="2"/>
-      <c r="G2" s="2" t="s">
-        <v>22</v>
-      </c>
+      <c r="G2" s="2"/>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A3" s="6" t="s">
@@ -839,9 +836,7 @@
       <c r="F3" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="G3" s="2" t="s">
-        <v>12</v>
-      </c>
+      <c r="G3" s="2"/>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A4" s="6" t="s">
@@ -862,9 +857,7 @@
       <c r="F4" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="G4" s="2" t="s">
-        <v>12</v>
-      </c>
+      <c r="G4" s="2"/>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A5" s="6" t="s">
@@ -885,9 +878,7 @@
       <c r="F5" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="G5" s="2" t="s">
-        <v>12</v>
-      </c>
+      <c r="G5" s="2"/>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A6" s="6" t="s">
@@ -897,7 +888,7 @@
         <v>1</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="D6" s="2" t="s">
         <v>19</v>
@@ -956,7 +947,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:7" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A9" s="6" t="s">
         <v>31</v>
       </c>
@@ -969,34 +960,34 @@
       <c r="D9" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="E9" s="2" t="s">
+      <c r="E9" s="6" t="s">
+        <v>113</v>
+      </c>
+      <c r="F9" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="G9" s="2" t="s">
         <v>34</v>
-      </c>
-      <c r="F9" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="G9" s="2" t="s">
-        <v>36</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A10" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="B10" s="5">
+        <v>1</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="D10" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="B10" s="5">
-        <v>1</v>
-      </c>
-      <c r="C10" s="2" t="s">
+      <c r="E10" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="D10" s="2" t="s">
+      <c r="F10" s="2" t="s">
         <v>39</v>
-      </c>
-      <c r="E10" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="F10" s="2" t="s">
-        <v>41</v>
       </c>
       <c r="G10" s="2" t="s">
         <v>22</v>
@@ -1004,22 +995,22 @@
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A11" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="B11" s="5">
+        <v>1</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="D11" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="B11" s="5">
-        <v>1</v>
-      </c>
-      <c r="C11" s="2" t="s">
+      <c r="E11" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="D11" s="2" t="s">
+      <c r="F11" s="2" t="s">
         <v>44</v>
-      </c>
-      <c r="E11" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="F11" s="2" t="s">
-        <v>46</v>
       </c>
       <c r="G11" s="2" t="s">
         <v>22</v>
@@ -1027,22 +1018,22 @@
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A12" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="B12" s="5">
+        <v>1</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="D12" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="B12" s="5">
-        <v>1</v>
-      </c>
-      <c r="C12" s="2" t="s">
+      <c r="E12" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="D12" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="E12" s="2" t="s">
-        <v>50</v>
-      </c>
       <c r="F12" s="2" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="G12" s="2" t="s">
         <v>22</v>
@@ -1050,16 +1041,16 @@
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A13" s="6" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="B13" s="5">
         <v>2</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="E13" s="2" t="s">
         <v>12</v>
@@ -1067,45 +1058,37 @@
       <c r="F13" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="G13" s="2" t="s">
-        <v>22</v>
-      </c>
+      <c r="G13" s="2"/>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A14" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="B14" s="5">
+        <v>1</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="D14" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="B14" s="5">
-        <v>1</v>
-      </c>
-      <c r="C14" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="D14" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="E14" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="F14" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="G14" s="2" t="s">
-        <v>22</v>
-      </c>
+      <c r="E14" s="2"/>
+      <c r="F14" s="2"/>
+      <c r="G14" s="2"/>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A15" s="6" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="B15" s="5">
         <v>1</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="E15" s="1"/>
       <c r="F15" s="1"/>
@@ -1113,16 +1096,16 @@
     </row>
     <row r="16" spans="1:7" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A16" s="6" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="B16" s="5">
         <v>5</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="E16" s="2" t="s">
         <v>12</v>
@@ -1130,22 +1113,20 @@
       <c r="F16" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="G16" s="2" t="s">
-        <v>22</v>
-      </c>
+      <c r="G16" s="2"/>
     </row>
     <row r="17" spans="1:7" ht="42.75" x14ac:dyDescent="0.45">
       <c r="A17" s="6" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="B17" s="5">
         <v>8</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="E17" s="2" t="s">
         <v>12</v>
@@ -1159,16 +1140,16 @@
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A18" s="6" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="B18" s="5">
         <v>2</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="E18" s="2" t="s">
         <v>12</v>
@@ -1182,16 +1163,16 @@
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A19" s="6" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="B19" s="5">
         <v>2</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="E19" s="2" t="s">
         <v>12</v>
@@ -1205,22 +1186,22 @@
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A20" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="B20" s="5">
+        <v>1</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="D20" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="E20" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="F20" s="2" t="s">
         <v>74</v>
-      </c>
-      <c r="B20" s="5">
-        <v>1</v>
-      </c>
-      <c r="C20" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="D20" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="E20" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="F20" s="2" t="s">
-        <v>78</v>
       </c>
       <c r="G20" s="2" t="s">
         <v>22</v>
@@ -1228,43 +1209,43 @@
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A21" s="6" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="B21" s="5">
         <v>1</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="F21" s="2" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="G21" s="1"/>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A22" s="6" t="s">
+        <v>79</v>
+      </c>
+      <c r="B22" s="5">
+        <v>1</v>
+      </c>
+      <c r="C22" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="D22" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="E22" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="F22" s="2" t="s">
         <v>83</v>
-      </c>
-      <c r="B22" s="5">
-        <v>1</v>
-      </c>
-      <c r="C22" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="D22" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="E22" s="2" t="s">
-        <v>86</v>
-      </c>
-      <c r="F22" s="2" t="s">
-        <v>87</v>
       </c>
       <c r="G22" s="2" t="s">
         <v>22</v>
@@ -1272,87 +1253,87 @@
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A23" s="6" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="B23" s="5">
         <v>1</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="F23" s="2" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="G23" s="2" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A24" s="6" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="B24" s="5">
         <v>1</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="E24" s="1"/>
       <c r="F24" s="2" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="G24" s="1"/>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A25" s="6" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="B25" s="5">
         <v>1</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="E25" s="2" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="F25" s="2" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="G25" s="2" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A26" s="6" t="s">
+        <v>96</v>
+      </c>
+      <c r="B26" s="5">
+        <v>1</v>
+      </c>
+      <c r="C26" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="D26" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="E26" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="F26" s="2" t="s">
         <v>100</v>
-      </c>
-      <c r="B26" s="5">
-        <v>1</v>
-      </c>
-      <c r="C26" s="2" t="s">
-        <v>101</v>
-      </c>
-      <c r="D26" s="2" t="s">
-        <v>102</v>
-      </c>
-      <c r="E26" s="2" t="s">
-        <v>103</v>
-      </c>
-      <c r="F26" s="2" t="s">
-        <v>104</v>
       </c>
       <c r="G26" s="2" t="s">
         <v>22</v>
@@ -1360,22 +1341,22 @@
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A27" s="6" t="s">
+        <v>101</v>
+      </c>
+      <c r="B27" s="5">
+        <v>1</v>
+      </c>
+      <c r="C27" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="D27" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="E27" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="F27" s="2" t="s">
         <v>105</v>
-      </c>
-      <c r="B27" s="5">
-        <v>1</v>
-      </c>
-      <c r="C27" s="2" t="s">
-        <v>106</v>
-      </c>
-      <c r="D27" s="2" t="s">
-        <v>107</v>
-      </c>
-      <c r="E27" s="2" t="s">
-        <v>108</v>
-      </c>
-      <c r="F27" s="2" t="s">
-        <v>109</v>
       </c>
       <c r="G27" s="2" t="s">
         <v>22</v>
@@ -1383,23 +1364,23 @@
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A28" s="6" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="B28" s="5">
         <v>1</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="D28" s="1"/>
       <c r="E28" s="2" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="F28" s="2" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="G28" s="2" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
     </row>
   </sheetData>
